--- a/gastosConstrucao.xlsx
+++ b/gastosConstrucao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEABB8DE-78D9-4862-B7DB-1CBE4BD25172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD387E-D540-4123-9A30-5E8CFB0945ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3264CFD4-EC94-4526-9B38-B1E9A1E79741}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -72,6 +72,63 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Janela Sala</t>
+  </si>
+  <si>
+    <t>Janela Cozinha</t>
+  </si>
+  <si>
+    <t>Janela Banheiro</t>
+  </si>
+  <si>
+    <t>Gastos itens para casa</t>
+  </si>
+  <si>
+    <t>Ganhos Casa</t>
+  </si>
+  <si>
+    <t>Doação Dinheiro</t>
+  </si>
+  <si>
+    <t>Doação Saco de cimento</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Viga 4f 10x20 6M</t>
+  </si>
+  <si>
+    <t>Viga 4f 12x20 4M</t>
+  </si>
+  <si>
+    <t>Bloco vidro</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Jair Mil Tijolos, metro areia</t>
+  </si>
+  <si>
+    <t>Jair Mil Tijolos, metro areia, pedra</t>
+  </si>
+  <si>
+    <t>Total Itens</t>
+  </si>
+  <si>
+    <t>Total Gastos Construção</t>
+  </si>
+  <si>
+    <t>Ganhos (Itens, doação)</t>
+  </si>
+  <si>
+    <t>Tanque 2 cubas</t>
   </si>
 </sst>
 </file>
@@ -121,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,18 +205,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,168 +542,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7380A1-7C1F-4C1C-BAE5-D97CAF8EF11D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>45</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>B3*C3</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4">
+        <v>260</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>400</v>
+      </c>
+      <c r="L3" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>116.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D10" si="0">B4*C4</f>
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>385</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>131</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>200</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>81</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>22.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1357</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>1357</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <f>B12*C12</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>26</v>
+      </c>
       <c r="D13" s="4">
-        <f>SUM(D3:D12)</f>
-        <v>2361</v>
+        <f>B13*C13</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>B14*C14</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>280</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15*C15</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6">
+        <f>SUM(D3:D15)</f>
+        <v>4712</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUM(G3:G11)</f>
+        <v>845</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="7">
+        <f>SUM(L3:L11)</f>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gastosConstrucao.xlsx
+++ b/gastosConstrucao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD387E-D540-4123-9A30-5E8CFB0945ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4F39A-0E0F-421D-B6E9-3440ECBAB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3264CFD4-EC94-4526-9B38-B1E9A1E79741}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{3264CFD4-EC94-4526-9B38-B1E9A1E79741}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +177,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -216,17 +237,19 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -545,7 +568,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,22 +589,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -645,6 +668,7 @@
         <v>400</v>
       </c>
       <c r="L3" s="4">
+        <f>K3*J3</f>
         <v>400</v>
       </c>
     </row>
@@ -678,6 +702,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="4">
+        <f t="shared" ref="L4:L5" si="1">K4*J4</f>
         <v>310</v>
       </c>
     </row>
@@ -707,6 +732,13 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
+      <c r="K5" s="4">
+        <v>265</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -866,14 +898,14 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <f>SUM(D3:D15)</f>
         <v>4712</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="12">
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
@@ -882,9 +914,9 @@
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="7">
+      <c r="L22" s="8">
         <f>SUM(L3:L11)</f>
-        <v>710</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -901,21 +933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -1138,32 +1155,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1180,4 +1187,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/gastosConstrucao.xlsx
+++ b/gastosConstrucao.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B4F39A-0E0F-421D-B6E9-3440ECBAB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{3264CFD4-EC94-4526-9B38-B1E9A1E79741}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -89,9 +88,6 @@
     <t>Ganhos Casa</t>
   </si>
   <si>
-    <t>Doação Dinheiro</t>
-  </si>
-  <si>
     <t>Doação Saco de cimento</t>
   </si>
   <si>
@@ -129,12 +125,27 @@
   </si>
   <si>
     <t>Tanque 2 cubas</t>
+  </si>
+  <si>
+    <t>Doação Dinheiro (Ir Rogerio)</t>
+  </si>
+  <si>
+    <t>24m² Laje H8 Isopor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedra brita </t>
+  </si>
+  <si>
+    <t>Areia media branca</t>
+  </si>
+  <si>
+    <t>Cimento Caue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -237,19 +248,19 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -564,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7380A1-7C1F-4C1C-BAE5-D97CAF8EF11D}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,34 +588,34 @@
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="5.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -620,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -659,7 +670,7 @@
         <v>260</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -693,7 +704,7 @@
         <v>385</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
@@ -702,7 +713,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L5" si="1">K4*J4</f>
+        <f t="shared" ref="L4:L10" si="1">K4*J4</f>
         <v>310</v>
       </c>
     </row>
@@ -727,7 +738,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -754,6 +765,19 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -769,6 +793,19 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1071</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -784,6 +821,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>155</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -799,10 +849,23 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>175</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -814,10 +877,23 @@
         <f t="shared" si="0"/>
         <v>1357</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4">
+        <v>30.99</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>464.84999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -828,10 +904,12 @@
       <c r="D11" s="4">
         <v>1050</v>
       </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>13</v>
@@ -843,10 +921,12 @@
         <f>B12*C12</f>
         <v>338</v>
       </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -858,10 +938,12 @@
         <f>B13*C13</f>
         <v>104</v>
       </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>26</v>
@@ -873,10 +955,12 @@
         <f>B14*C14</f>
         <v>299</v>
       </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -888,35 +972,42 @@
         <f>B15*C15</f>
         <v>560</v>
       </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="7">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="6">
         <f>SUM(D3:D15)</f>
         <v>4712</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="F18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9">
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="8">
+      <c r="I18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="7">
         <f>SUM(L3:L11)</f>
-        <v>975</v>
+        <v>4170.8500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -924,8 +1015,8 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1156,18 +1247,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,14 +1281,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1212,4 +1295,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/gastosConstrucao.xlsx
+++ b/gastosConstrucao.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Gastos Construção</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Cimento Caue</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +923,9 @@
       <c r="D12" s="4">
         <f>B12*C12</f>
         <v>338</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1247,18 +1253,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,6 +1287,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1295,12 +1309,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>